--- a/icdph.xlsx
+++ b/icdph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartanus\Code\icdph-iban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE172F-D62F-40F6-9C4B-AD5D4B5E6D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF50093-D8E8-499F-9C45-2E753EBCAB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{7B7178F4-6115-4471-AABC-0DED7B47760E}"/>
   </bookViews>
@@ -46,18 +46,9 @@
     <t>ic_dph</t>
   </si>
   <si>
-    <t>Dynatech s.r.o.</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN SLOVAKIA, a.s.</t>
-  </si>
-  <si>
     <t>SK2020220862</t>
   </si>
   <si>
-    <t>Kia Slovakia s. r. o.</t>
-  </si>
-  <si>
     <t>SK2021787801</t>
   </si>
   <si>
@@ -152,6 +143,15 @@
   </si>
   <si>
     <t>CHYBNÁ POLOŽKA, s.r.o.</t>
+  </si>
+  <si>
+    <t>Dynatech</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>Kia</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -549,127 +549,127 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
